--- a/Examples/MCUXpresso/LPC845-BRK/LPC845-BRK_StepperClock/3D/StepperClock BOM.xlsx
+++ b/Examples/MCUXpresso/LPC845-BRK/LPC845-BRK_StepperClock/3D/StepperClock BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC76158-BA6E-46D8-9566-05EDD0CDAE80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3C9D2A-8AD3-42F3-9599-74F120D8BFC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11220" yWindow="-17310" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="-17175" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Item</t>
   </si>
@@ -64,39 +64,12 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Neodynium Magnets 1x2 mm</t>
-  </si>
-  <si>
     <t>10 for $2.85</t>
   </si>
   <si>
-    <t>100 for $2.25</t>
-  </si>
-  <si>
-    <t>Nuts and Bolts (3 mm)</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
     <t>Total amount</t>
   </si>
   <si>
-    <t>Lasercutter with Plywood 4mm</t>
-  </si>
-  <si>
-    <t>3D Printer with PLA</t>
-  </si>
-  <si>
-    <t>Honeywell SS49E Hall Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.ch/ProductDetail/Honeywell/SS49E </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.aliexpress.com/item/32953600097.html </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.aliexpress.com/item/32869969097.html </t>
   </si>
   <si>
@@ -115,12 +88,6 @@
     <t>20pin x 20 cm</t>
   </si>
   <si>
-    <t>Diodes Incorporated AH3774</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ch/ProductDetail/Diodes-Incorporated/AH3774-P-B</t>
-  </si>
-  <si>
     <t>https://www.mouser.ch/ProductDetail/Diodes-Incorporated/AH3572-P-B</t>
   </si>
   <si>
@@ -128,13 +95,52 @@
   </si>
   <si>
     <t>10 for $3.50</t>
+  </si>
+  <si>
+    <t>Lasercutter with Plywood 4mm or PMMA</t>
+  </si>
+  <si>
+    <t>3D Printer with PLA (white or any other color)</t>
+  </si>
+  <si>
+    <t>Neodynium Magnets 5x2 mm</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32867770710.html</t>
+  </si>
+  <si>
+    <t>100 for $4.27</t>
+  </si>
+  <si>
+    <t>M3 Nuts and Bolts (3 mmx10mm)</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32990585262.html</t>
+  </si>
+  <si>
+    <t>120pc 20 cm or any bulk offer</t>
+  </si>
+  <si>
+    <t>Plywood sheet A3</t>
+  </si>
+  <si>
+    <t>1 kg PLA: around $20</t>
+  </si>
+  <si>
+    <t>different style or size possible</t>
+  </si>
+  <si>
+    <t>Wood screws 2x10mm</t>
+  </si>
+  <si>
+    <t>Used for distance holders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,36 +172,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -220,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -229,12 +212,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -519,7 +496,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:K10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,10 +567,10 @@
         <v>3.75</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -607,15 +584,15 @@
         <v>0.6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -624,87 +601,105 @@
         <v>0.05</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>16</v>
@@ -713,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -728,24 +723,23 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(C4:C15)</f>
-        <v>12.2</v>
+        <v>14.85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{C2227D17-A1F4-45A9-BCB3-34B60937DD84}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{C911BD31-3D9D-4996-A245-6CC7030A5F9B}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{2E6B7E3F-0A85-4DD7-8BE7-E978F7C18C7F}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{6219EA39-E838-45EE-87FE-C2FA82D80082}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{4888FA06-1EC3-4E06-A630-13F7777874DA}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{66183F67-1893-44EC-8A9C-434D34ECC214}"/>
-    <hyperlink ref="E15" r:id="rId7" xr:uid="{E10FD8A3-3DD6-4B3C-894D-AE5739EA0D1A}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{6219EA39-E838-45EE-87FE-C2FA82D80082}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{4888FA06-1EC3-4E06-A630-13F7777874DA}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{66183F67-1893-44EC-8A9C-434D34ECC214}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{E10FD8A3-3DD6-4B3C-894D-AE5739EA0D1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Examples/MCUXpresso/LPC845-BRK/LPC845-BRK_StepperClock/3D/StepperClock BOM.xlsx
+++ b/Examples/MCUXpresso/LPC845-BRK/LPC845-BRK_StepperClock/3D/StepperClock BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3C9D2A-8AD3-42F3-9599-74F120D8BFC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70281054-2EFC-4264-A559-35DE71ADC47A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="-17175" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16680" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,8 +738,9 @@
     <hyperlink ref="E6" r:id="rId4" xr:uid="{4888FA06-1EC3-4E06-A630-13F7777874DA}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{66183F67-1893-44EC-8A9C-434D34ECC214}"/>
     <hyperlink ref="E15" r:id="rId6" xr:uid="{E10FD8A3-3DD6-4B3C-894D-AE5739EA0D1A}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{D2B712E1-A663-4EAA-8E58-6E1A3E995F12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>